--- a/init-incre-scripts/deploy_log.xlsx
+++ b/init-incre-scripts/deploy_log.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="122211" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
   <si>
     <t>脚本名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -44,27 +44,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>update_regiondb_spatial.sh</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>未发布</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>update_glm_tables.sh</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>配置文件说明</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>update_glm_tables.conf</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
+    <t>update_fm_sys.sh</t>
+  </si>
+  <si>
+    <t>update_fm_sys.sh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>update_fm_sys.sh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>update_fm_sys.conf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实例，以后会删</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>包含</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. update_fm_sys_msg_glmtables.sql
+2. update_cop_ck_rules.sql</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -72,7 +84,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -88,6 +100,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -115,9 +143,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -422,74 +455,84 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="29.75" customWidth="1"/>
+    <col min="1" max="1" width="22.5" customWidth="1"/>
     <col min="2" max="2" width="24" customWidth="1"/>
-    <col min="3" max="3" width="14.5" customWidth="1"/>
-    <col min="4" max="4" width="25.875" customWidth="1"/>
-    <col min="5" max="5" width="25.5" customWidth="1"/>
-    <col min="6" max="6" width="46.625" customWidth="1"/>
+    <col min="3" max="3" width="39.625" customWidth="1"/>
+    <col min="4" max="4" width="14.5" customWidth="1"/>
+    <col min="5" max="5" width="25.875" customWidth="1"/>
+    <col min="6" max="6" width="25.5" customWidth="1"/>
+    <col min="7" max="7" width="46.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
+      <c r="B2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
+    <row r="3" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
         <v>9</v>
-      </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>7</v>
       </c>
       <c r="B3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="E3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/init-incre-scripts/deploy_log.xlsx
+++ b/init-incre-scripts/deploy_log.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
   <si>
     <t>脚本名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -77,6 +77,22 @@
   <si>
     <t>1. update_fm_sys_msg_glmtables.sql
 2. update_cop_ck_rules.sql</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>update_fm_sys_20161122/update_fm_sys_20161122.sh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>update_fm_sys_20161122/update_fm_sys_20161122.conf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>update_fm_sys_20161122/*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未发布</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -143,13 +159,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -455,16 +477,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="22.5" customWidth="1"/>
-    <col min="2" max="2" width="24" customWidth="1"/>
+    <col min="1" max="1" width="28.625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="28.25" style="4" customWidth="1"/>
     <col min="3" max="3" width="39.625" customWidth="1"/>
     <col min="4" max="4" width="14.5" customWidth="1"/>
     <col min="5" max="5" width="25.875" customWidth="1"/>
@@ -473,10 +495,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C1" t="s">
@@ -496,10 +518,10 @@
       </c>
     </row>
     <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D2" s="3" t="s">
@@ -516,10 +538,10 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
+      <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C3" s="4" t="s">
@@ -529,10 +551,30 @@
         <v>4</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
